--- a/script_master_data/ficherosExcelOrigen/DED-FDAR_Adopcion IA_v1a.xlsx
+++ b/script_master_data/ficherosExcelOrigen/DED-FDAR_Adopcion IA_v1a.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C43AD9F-7C57-4A2F-AB75-104D82E146F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9351CF9E-0A56-4753-9CEF-4607EFD408F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -1205,7 +1205,7 @@
     * Prompt Documentar: Casi sin uso, porque no hay directriz en GISS ni en Agile de documentar.</t>
   </si>
   <si>
-    <t>prompts</t>
+    <t>prompt</t>
   </si>
   <si>
     <t>Comprender Codigo Fuente</t>
@@ -1264,7 +1264,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1359,7 +1358,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -19448,16 +19446,16 @@
   <dimension ref="B2:AS164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AF6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AP2" sqref="AP2"/>
+      <selection pane="bottomRight" activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.54296875" style="119" customWidth="1"/>
@@ -19532,7 +19530,7 @@
       <c r="AN4" s="5"/>
       <c r="AO4" s="6"/>
     </row>
-    <row r="5" spans="2:45" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:45" ht="39" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -19662,11 +19660,11 @@
       <c r="AR5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AS5" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="6" spans="2:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
@@ -19745,18 +19743,18 @@
       <c r="AO6" s="116"/>
       <c r="AP6" s="28"/>
       <c r="AQ6" s="30" t="str">
-        <f>IF(OR(G6="S",L6="S",Q6="S",V6="S",AA6="S",AF6="S",AK6="S"),"S","N")</f>
+        <f t="shared" ref="AQ6:AQ32" si="0">IF(OR(G6="S",L6="S",Q6="S",V6="S",AA6="S",AF6="S",AK6="S"),"S","N")</f>
         <v>N</v>
       </c>
       <c r="AR6" s="30" t="str">
-        <f>IF(OR(H6="S",M6="S",R6="S",W6="S",AB6="S",AG6="S",AL6="S"),"S","N")</f>
+        <f t="shared" ref="AR6:AR32" si="1">IF(OR(H6="S",M6="S",R6="S",W6="S",AB6="S",AG6="S",AL6="S"),"S","N")</f>
         <v>N</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AS6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:45" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:45" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
@@ -19823,18 +19821,18 @@
       <c r="AO7" s="118"/>
       <c r="AP7" s="28"/>
       <c r="AQ7" s="30" t="str">
-        <f>IF(OR(G7="S",L7="S",Q7="S",V7="S",AA7="S",AF7="S",AK7="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="AR7" s="30" t="str">
-        <f>IF(OR(H7="S",M7="S",R7="S",W7="S",AB7="S",AG7="S",AL7="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AS7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:45" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
@@ -19903,18 +19901,18 @@
         <v>36</v>
       </c>
       <c r="AQ8" s="30" t="str">
-        <f>IF(OR(G8="S",L8="S",Q8="S",V8="S",AA8="S",AF8="S",AK8="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="AR8" s="30" t="str">
-        <f>IF(OR(H8="S",M8="S",R8="S",W8="S",AB8="S",AG8="S",AL8="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AS8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:45" ht="65.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:45" ht="65" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
@@ -20005,18 +20003,18 @@
         <v>39</v>
       </c>
       <c r="AQ9" s="30" t="str">
-        <f>IF(OR(G9="S",L9="S",Q9="S",V9="S",AA9="S",AF9="S",AK9="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="AR9" s="30" t="str">
-        <f>IF(OR(H9="S",M9="S",R9="S",W9="S",AB9="S",AG9="S",AL9="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AS9" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="2:45" ht="65.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:45" ht="65" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
@@ -20107,18 +20105,18 @@
         <v>42</v>
       </c>
       <c r="AQ10" s="30" t="str">
-        <f>IF(OR(G10="S",L10="S",Q10="S",V10="S",AA10="S",AF10="S",AK10="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="AR10" s="30" t="str">
-        <f>IF(OR(H10="S",M10="S",R10="S",W10="S",AB10="S",AG10="S",AL10="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AS10" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="2:45" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
@@ -20213,18 +20211,18 @@
         <v>36</v>
       </c>
       <c r="AQ11" s="30" t="str">
-        <f>IF(OR(G11="S",L11="S",Q11="S",V11="S",AA11="S",AF11="S",AK11="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="AR11" s="30" t="str">
-        <f>IF(OR(H11="S",M11="S",R11="S",W11="S",AB11="S",AG11="S",AL11="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AS11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:45" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
@@ -20311,14 +20309,14 @@
         <v>36</v>
       </c>
       <c r="AQ12" s="30" t="str">
-        <f>IF(OR(G12="S",L12="S",Q12="S",V12="S",AA12="S",AF12="S",AK12="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="AR12" s="30" t="str">
-        <f>IF(OR(H12="S",M12="S",R12="S",W12="S",AB12="S",AG12="S",AL12="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AS12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -20397,11 +20395,11 @@
         <v>50</v>
       </c>
       <c r="AQ13" s="30" t="str">
-        <f>IF(OR(G13="S",L13="S",Q13="S",V13="S",AA13="S",AF13="S",AK13="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="AR13" s="30" t="str">
-        <f>IF(OR(H13="S",M13="S",R13="S",W13="S",AB13="S",AG13="S",AL13="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>S</v>
       </c>
     </row>
@@ -20484,11 +20482,11 @@
       <c r="AO14" s="118"/>
       <c r="AP14" s="28"/>
       <c r="AQ14" s="30" t="str">
-        <f>IF(OR(G14="S",L14="S",Q14="S",V14="S",AA14="S",AF14="S",AK14="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="AR14" s="30" t="str">
-        <f>IF(OR(H14="S",M14="S",R14="S",W14="S",AB14="S",AG14="S",AL14="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
     </row>
@@ -20571,11 +20569,11 @@
       <c r="AO15" s="118"/>
       <c r="AP15" s="28"/>
       <c r="AQ15" s="30" t="str">
-        <f>IF(OR(G15="S",L15="S",Q15="S",V15="S",AA15="S",AF15="S",AK15="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="AR15" s="30" t="str">
-        <f>IF(OR(H15="S",M15="S",R15="S",W15="S",AB15="S",AG15="S",AL15="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
     </row>
@@ -20648,11 +20646,11 @@
       <c r="AO16" s="118"/>
       <c r="AP16" s="28"/>
       <c r="AQ16" s="30" t="str">
-        <f>IF(OR(G16="S",L16="S",Q16="S",V16="S",AA16="S",AF16="S",AK16="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="AR16" s="30" t="str">
-        <f>IF(OR(H16="S",M16="S",R16="S",W16="S",AB16="S",AG16="S",AL16="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
     </row>
@@ -20737,11 +20735,11 @@
         <v>61</v>
       </c>
       <c r="AQ17" s="30" t="str">
-        <f>IF(OR(G17="S",L17="S",Q17="S",V17="S",AA17="S",AF17="S",AK17="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="AR17" s="30" t="str">
-        <f>IF(OR(H17="S",M17="S",R17="S",W17="S",AB17="S",AG17="S",AL17="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
     </row>
@@ -20818,11 +20816,11 @@
       <c r="AO18" s="118"/>
       <c r="AP18" s="28"/>
       <c r="AQ18" s="30" t="str">
-        <f>IF(OR(G18="S",L18="S",Q18="S",V18="S",AA18="S",AF18="S",AK18="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="AR18" s="30" t="str">
-        <f>IF(OR(H18="S",M18="S",R18="S",W18="S",AB18="S",AG18="S",AL18="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
     </row>
@@ -20911,11 +20909,11 @@
         <v>68</v>
       </c>
       <c r="AQ19" s="30" t="str">
-        <f>IF(OR(G19="S",L19="S",Q19="S",V19="S",AA19="S",AF19="S",AK19="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="AR19" s="30" t="str">
-        <f>IF(OR(H19="S",M19="S",R19="S",W19="S",AB19="S",AG19="S",AL19="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>S</v>
       </c>
     </row>
@@ -21008,11 +21006,11 @@
         <v>71</v>
       </c>
       <c r="AQ20" s="30" t="str">
-        <f>IF(OR(G20="S",L20="S",Q20="S",V20="S",AA20="S",AF20="S",AK20="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="AR20" s="30" t="str">
-        <f>IF(OR(H20="S",M20="S",R20="S",W20="S",AB20="S",AG20="S",AL20="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>S</v>
       </c>
     </row>
@@ -21105,11 +21103,11 @@
         <v>74</v>
       </c>
       <c r="AQ21" s="30" t="str">
-        <f>IF(OR(G21="S",L21="S",Q21="S",V21="S",AA21="S",AF21="S",AK21="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="AR21" s="30" t="str">
-        <f>IF(OR(H21="S",M21="S",R21="S",W21="S",AB21="S",AG21="S",AL21="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>S</v>
       </c>
     </row>
@@ -21196,11 +21194,11 @@
         <v>36</v>
       </c>
       <c r="AQ22" s="30" t="str">
-        <f>IF(OR(G22="S",L22="S",Q22="S",V22="S",AA22="S",AF22="S",AK22="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="AR22" s="30" t="str">
-        <f>IF(OR(H22="S",M22="S",R22="S",W22="S",AB22="S",AG22="S",AL22="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>S</v>
       </c>
     </row>
@@ -21287,11 +21285,11 @@
         <v>79</v>
       </c>
       <c r="AQ23" s="30" t="str">
-        <f>IF(OR(G23="S",L23="S",Q23="S",V23="S",AA23="S",AF23="S",AK23="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="AR23" s="30" t="str">
-        <f>IF(OR(H23="S",M23="S",R23="S",W23="S",AB23="S",AG23="S",AL23="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>S</v>
       </c>
     </row>
@@ -21374,11 +21372,11 @@
       <c r="AO24" s="118"/>
       <c r="AP24" s="28"/>
       <c r="AQ24" s="30" t="str">
-        <f>IF(OR(G24="S",L24="S",Q24="S",V24="S",AA24="S",AF24="S",AK24="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="AR24" s="30" t="str">
-        <f>IF(OR(H24="S",M24="S",R24="S",W24="S",AB24="S",AG24="S",AL24="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
     </row>
@@ -21451,11 +21449,11 @@
       <c r="AO25" s="118"/>
       <c r="AP25" s="28"/>
       <c r="AQ25" s="30" t="str">
-        <f>IF(OR(G25="S",L25="S",Q25="S",V25="S",AA25="S",AF25="S",AK25="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="AR25" s="30" t="str">
-        <f>IF(OR(H25="S",M25="S",R25="S",W25="S",AB25="S",AG25="S",AL25="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
     </row>
@@ -21524,11 +21522,11 @@
       <c r="AO26" s="118"/>
       <c r="AP26" s="28"/>
       <c r="AQ26" s="30" t="str">
-        <f>IF(OR(G26="S",L26="S",Q26="S",V26="S",AA26="S",AF26="S",AK26="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="AR26" s="30" t="str">
-        <f>IF(OR(H26="S",M26="S",R26="S",W26="S",AB26="S",AG26="S",AL26="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>S</v>
       </c>
     </row>
@@ -21591,11 +21589,11 @@
       <c r="AO27" s="118"/>
       <c r="AP27" s="28"/>
       <c r="AQ27" s="30" t="str">
-        <f>IF(OR(G27="S",L27="S",Q27="S",V27="S",AA27="S",AF27="S",AK27="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="AR27" s="30" t="str">
-        <f>IF(OR(H27="S",M27="S",R27="S",W27="S",AB27="S",AG27="S",AL27="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
     </row>
@@ -21664,11 +21662,11 @@
       <c r="AO28" s="118"/>
       <c r="AP28" s="28"/>
       <c r="AQ28" s="30" t="str">
-        <f>IF(OR(G28="S",L28="S",Q28="S",V28="S",AA28="S",AF28="S",AK28="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="AR28" s="30" t="str">
-        <f>IF(OR(H28="S",M28="S",R28="S",W28="S",AB28="S",AG28="S",AL28="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>S</v>
       </c>
     </row>
@@ -21737,11 +21735,11 @@
       <c r="AO29" s="118"/>
       <c r="AP29" s="28"/>
       <c r="AQ29" s="30" t="str">
-        <f>IF(OR(G29="S",L29="S",Q29="S",V29="S",AA29="S",AF29="S",AK29="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="AR29" s="30" t="str">
-        <f>IF(OR(H29="S",M29="S",R29="S",W29="S",AB29="S",AG29="S",AL29="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>S</v>
       </c>
     </row>
@@ -21826,11 +21824,11 @@
       <c r="AO30" s="118"/>
       <c r="AP30" s="28"/>
       <c r="AQ30" s="30" t="str">
-        <f>IF(OR(G30="S",L30="S",Q30="S",V30="S",AA30="S",AF30="S",AK30="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="AR30" s="30" t="str">
-        <f>IF(OR(H30="S",M30="S",R30="S",W30="S",AB30="S",AG30="S",AL30="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>S</v>
       </c>
     </row>
@@ -21901,11 +21899,11 @@
       <c r="AO31" s="118"/>
       <c r="AP31" s="28"/>
       <c r="AQ31" s="30" t="str">
-        <f>IF(OR(G31="S",L31="S",Q31="S",V31="S",AA31="S",AF31="S",AK31="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="AR31" s="30" t="str">
-        <f>IF(OR(H31="S",M31="S",R31="S",W31="S",AB31="S",AG31="S",AL31="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
     </row>
@@ -21976,11 +21974,11 @@
       <c r="AO32" s="118"/>
       <c r="AP32" s="28"/>
       <c r="AQ32" s="30" t="str">
-        <f>IF(OR(G32="S",L32="S",Q32="S",V32="S",AA32="S",AF32="S",AK32="S"),"S","N")</f>
+        <f t="shared" si="0"/>
         <v>N</v>
       </c>
       <c r="AR32" s="30" t="str">
-        <f>IF(OR(H32="S",M32="S",R32="S",W32="S",AB32="S",AG32="S",AL32="S"),"S","N")</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
     </row>
@@ -22144,11 +22142,11 @@
       <c r="AO34" s="118"/>
       <c r="AP34" s="28"/>
       <c r="AQ34" s="30" t="str">
-        <f>IF(OR(G34="S",L34="S",Q34="S",V34="S",AA34="S",AF34="S",AK34="S"),"S","N")</f>
+        <f t="shared" ref="AQ34:AQ65" si="2">IF(OR(G34="S",L34="S",Q34="S",V34="S",AA34="S",AF34="S",AK34="S"),"S","N")</f>
         <v>N</v>
       </c>
       <c r="AR34" s="30" t="str">
-        <f>IF(OR(H34="S",M34="S",R34="S",W34="S",AB34="S",AG34="S",AL34="S"),"S","N")</f>
+        <f t="shared" ref="AR34:AR65" si="3">IF(OR(H34="S",M34="S",R34="S",W34="S",AB34="S",AG34="S",AL34="S"),"S","N")</f>
         <v>N</v>
       </c>
     </row>
@@ -22231,11 +22229,11 @@
       <c r="AO35" s="118"/>
       <c r="AP35" s="28"/>
       <c r="AQ35" s="30" t="str">
-        <f>IF(OR(G35="S",L35="S",Q35="S",V35="S",AA35="S",AF35="S",AK35="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="AR35" s="30" t="str">
-        <f>IF(OR(H35="S",M35="S",R35="S",W35="S",AB35="S",AG35="S",AL35="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
     </row>
@@ -22296,11 +22294,11 @@
       <c r="AO36" s="118"/>
       <c r="AP36" s="28"/>
       <c r="AQ36" s="30" t="str">
-        <f>IF(OR(G36="S",L36="S",Q36="S",V36="S",AA36="S",AF36="S",AK36="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="AR36" s="30" t="str">
-        <f>IF(OR(H36="S",M36="S",R36="S",W36="S",AB36="S",AG36="S",AL36="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
     </row>
@@ -22379,11 +22377,11 @@
       <c r="AO37" s="118"/>
       <c r="AP37" s="28"/>
       <c r="AQ37" s="30" t="str">
-        <f>IF(OR(G37="S",L37="S",Q37="S",V37="S",AA37="S",AF37="S",AK37="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR37" s="30" t="str">
-        <f>IF(OR(H37="S",M37="S",R37="S",W37="S",AB37="S",AG37="S",AL37="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
@@ -22460,11 +22458,11 @@
       <c r="AO38" s="118"/>
       <c r="AP38" s="28"/>
       <c r="AQ38" s="30" t="str">
-        <f>IF(OR(G38="S",L38="S",Q38="S",V38="S",AA38="S",AF38="S",AK38="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR38" s="30" t="str">
-        <f>IF(OR(H38="S",M38="S",R38="S",W38="S",AB38="S",AG38="S",AL38="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
@@ -22555,11 +22553,11 @@
         <v>114</v>
       </c>
       <c r="AQ39" s="30" t="str">
-        <f>IF(OR(G39="S",L39="S",Q39="S",V39="S",AA39="S",AF39="S",AK39="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR39" s="30" t="str">
-        <f>IF(OR(H39="S",M39="S",R39="S",W39="S",AB39="S",AG39="S",AL39="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
@@ -22642,11 +22640,11 @@
       <c r="AO40" s="118"/>
       <c r="AP40" s="28"/>
       <c r="AQ40" s="30" t="str">
-        <f>IF(OR(G40="S",L40="S",Q40="S",V40="S",AA40="S",AF40="S",AK40="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="AR40" s="30" t="str">
-        <f>IF(OR(H40="S",M40="S",R40="S",W40="S",AB40="S",AG40="S",AL40="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
     </row>
@@ -22729,11 +22727,11 @@
       <c r="AO41" s="118"/>
       <c r="AP41" s="28"/>
       <c r="AQ41" s="30" t="str">
-        <f>IF(OR(G41="S",L41="S",Q41="S",V41="S",AA41="S",AF41="S",AK41="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="AR41" s="30" t="str">
-        <f>IF(OR(H41="S",M41="S",R41="S",W41="S",AB41="S",AG41="S",AL41="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
     </row>
@@ -22816,11 +22814,11 @@
       <c r="AO42" s="118"/>
       <c r="AP42" s="28"/>
       <c r="AQ42" s="30" t="str">
-        <f>IF(OR(G42="S",L42="S",Q42="S",V42="S",AA42="S",AF42="S",AK42="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="AR42" s="30" t="str">
-        <f>IF(OR(H42="S",M42="S",R42="S",W42="S",AB42="S",AG42="S",AL42="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
     </row>
@@ -22903,11 +22901,11 @@
       <c r="AO43" s="118"/>
       <c r="AP43" s="28"/>
       <c r="AQ43" s="30" t="str">
-        <f>IF(OR(G43="S",L43="S",Q43="S",V43="S",AA43="S",AF43="S",AK43="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="AR43" s="30" t="str">
-        <f>IF(OR(H43="S",M43="S",R43="S",W43="S",AB43="S",AG43="S",AL43="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
     </row>
@@ -22990,11 +22988,11 @@
       <c r="AO44" s="118"/>
       <c r="AP44" s="28"/>
       <c r="AQ44" s="30" t="str">
-        <f>IF(OR(G44="S",L44="S",Q44="S",V44="S",AA44="S",AF44="S",AK44="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="AR44" s="30" t="str">
-        <f>IF(OR(H44="S",M44="S",R44="S",W44="S",AB44="S",AG44="S",AL44="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
     </row>
@@ -23077,11 +23075,11 @@
       <c r="AO45" s="118"/>
       <c r="AP45" s="28"/>
       <c r="AQ45" s="30" t="str">
-        <f>IF(OR(G45="S",L45="S",Q45="S",V45="S",AA45="S",AF45="S",AK45="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="AR45" s="30" t="str">
-        <f>IF(OR(H45="S",M45="S",R45="S",W45="S",AB45="S",AG45="S",AL45="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
     </row>
@@ -23142,11 +23140,11 @@
       <c r="AO46" s="118"/>
       <c r="AP46" s="28"/>
       <c r="AQ46" s="30" t="str">
-        <f>IF(OR(G46="S",L46="S",Q46="S",V46="S",AA46="S",AF46="S",AK46="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="AR46" s="30" t="str">
-        <f>IF(OR(H46="S",M46="S",R46="S",W46="S",AB46="S",AG46="S",AL46="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
     </row>
@@ -23209,11 +23207,11 @@
       <c r="AO47" s="118"/>
       <c r="AP47" s="28"/>
       <c r="AQ47" s="30" t="str">
-        <f>IF(OR(G47="S",L47="S",Q47="S",V47="S",AA47="S",AF47="S",AK47="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR47" s="30" t="str">
-        <f>IF(OR(H47="S",M47="S",R47="S",W47="S",AB47="S",AG47="S",AL47="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
     </row>
@@ -23292,11 +23290,11 @@
       <c r="AO48" s="118"/>
       <c r="AP48" s="28"/>
       <c r="AQ48" s="30" t="str">
-        <f>IF(OR(G48="S",L48="S",Q48="S",V48="S",AA48="S",AF48="S",AK48="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR48" s="30" t="str">
-        <f>IF(OR(H48="S",M48="S",R48="S",W48="S",AB48="S",AG48="S",AL48="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
@@ -23375,11 +23373,11 @@
       <c r="AO49" s="118"/>
       <c r="AP49" s="28"/>
       <c r="AQ49" s="30" t="str">
-        <f>IF(OR(G49="S",L49="S",Q49="S",V49="S",AA49="S",AF49="S",AK49="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR49" s="30" t="str">
-        <f>IF(OR(H49="S",M49="S",R49="S",W49="S",AB49="S",AG49="S",AL49="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
@@ -23472,11 +23470,11 @@
       <c r="AO50" s="118"/>
       <c r="AP50" s="28"/>
       <c r="AQ50" s="30" t="str">
-        <f>IF(OR(G50="S",L50="S",Q50="S",V50="S",AA50="S",AF50="S",AK50="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR50" s="30" t="str">
-        <f>IF(OR(H50="S",M50="S",R50="S",W50="S",AB50="S",AG50="S",AL50="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
@@ -23555,11 +23553,11 @@
       <c r="AO51" s="118"/>
       <c r="AP51" s="28"/>
       <c r="AQ51" s="30" t="str">
-        <f>IF(OR(G51="S",L51="S",Q51="S",V51="S",AA51="S",AF51="S",AK51="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR51" s="30" t="str">
-        <f>IF(OR(H51="S",M51="S",R51="S",W51="S",AB51="S",AG51="S",AL51="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
@@ -23638,11 +23636,11 @@
       <c r="AO52" s="118"/>
       <c r="AP52" s="28"/>
       <c r="AQ52" s="30" t="str">
-        <f>IF(OR(G52="S",L52="S",Q52="S",V52="S",AA52="S",AF52="S",AK52="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR52" s="30" t="str">
-        <f>IF(OR(H52="S",M52="S",R52="S",W52="S",AB52="S",AG52="S",AL52="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
@@ -23735,11 +23733,11 @@
       <c r="AO53" s="118"/>
       <c r="AP53" s="28"/>
       <c r="AQ53" s="30" t="str">
-        <f>IF(OR(G53="S",L53="S",Q53="S",V53="S",AA53="S",AF53="S",AK53="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR53" s="30" t="str">
-        <f>IF(OR(H53="S",M53="S",R53="S",W53="S",AB53="S",AG53="S",AL53="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
@@ -23808,11 +23806,11 @@
       <c r="AO54" s="118"/>
       <c r="AP54" s="28"/>
       <c r="AQ54" s="30" t="str">
-        <f>IF(OR(G54="S",L54="S",Q54="S",V54="S",AA54="S",AF54="S",AK54="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR54" s="30" t="str">
-        <f>IF(OR(H54="S",M54="S",R54="S",W54="S",AB54="S",AG54="S",AL54="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
@@ -23881,11 +23879,11 @@
       <c r="AO55" s="118"/>
       <c r="AP55" s="28"/>
       <c r="AQ55" s="30" t="str">
-        <f>IF(OR(G55="S",L55="S",Q55="S",V55="S",AA55="S",AF55="S",AK55="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR55" s="30" t="str">
-        <f>IF(OR(H55="S",M55="S",R55="S",W55="S",AB55="S",AG55="S",AL55="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
@@ -23978,11 +23976,11 @@
       <c r="AO56" s="118"/>
       <c r="AP56" s="28"/>
       <c r="AQ56" s="30" t="str">
-        <f>IF(OR(G56="S",L56="S",Q56="S",V56="S",AA56="S",AF56="S",AK56="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR56" s="30" t="str">
-        <f>IF(OR(H56="S",M56="S",R56="S",W56="S",AB56="S",AG56="S",AL56="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
@@ -24067,11 +24065,11 @@
       <c r="AO57" s="118"/>
       <c r="AP57" s="28"/>
       <c r="AQ57" s="30" t="str">
-        <f>IF(OR(G57="S",L57="S",Q57="S",V57="S",AA57="S",AF57="S",AK57="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR57" s="30" t="str">
-        <f>IF(OR(H57="S",M57="S",R57="S",W57="S",AB57="S",AG57="S",AL57="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
@@ -24140,11 +24138,11 @@
       <c r="AO58" s="118"/>
       <c r="AP58" s="28"/>
       <c r="AQ58" s="30" t="str">
-        <f>IF(OR(G58="S",L58="S",Q58="S",V58="S",AA58="S",AF58="S",AK58="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR58" s="30" t="str">
-        <f>IF(OR(H58="S",M58="S",R58="S",W58="S",AB58="S",AG58="S",AL58="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
@@ -24237,11 +24235,11 @@
       <c r="AO59" s="118"/>
       <c r="AP59" s="28"/>
       <c r="AQ59" s="30" t="str">
-        <f>IF(OR(G59="S",L59="S",Q59="S",V59="S",AA59="S",AF59="S",AK59="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR59" s="30" t="str">
-        <f>IF(OR(H59="S",M59="S",R59="S",W59="S",AB59="S",AG59="S",AL59="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
@@ -24304,11 +24302,11 @@
       <c r="AO60" s="118"/>
       <c r="AP60" s="28"/>
       <c r="AQ60" s="30" t="str">
-        <f>IF(OR(G60="S",L60="S",Q60="S",V60="S",AA60="S",AF60="S",AK60="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR60" s="30" t="str">
-        <f>IF(OR(H60="S",M60="S",R60="S",W60="S",AB60="S",AG60="S",AL60="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
     </row>
@@ -24387,11 +24385,11 @@
       <c r="AO61" s="118"/>
       <c r="AP61" s="28"/>
       <c r="AQ61" s="30" t="str">
-        <f>IF(OR(G61="S",L61="S",Q61="S",V61="S",AA61="S",AF61="S",AK61="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR61" s="30" t="str">
-        <f>IF(OR(H61="S",M61="S",R61="S",W61="S",AB61="S",AG61="S",AL61="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
@@ -24464,11 +24462,11 @@
       <c r="AO62" s="118"/>
       <c r="AP62" s="28"/>
       <c r="AQ62" s="30" t="str">
-        <f>IF(OR(G62="S",L62="S",Q62="S",V62="S",AA62="S",AF62="S",AK62="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR62" s="30" t="str">
-        <f>IF(OR(H62="S",M62="S",R62="S",W62="S",AB62="S",AG62="S",AL62="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
     </row>
@@ -24551,11 +24549,11 @@
       <c r="AO63" s="118"/>
       <c r="AP63" s="28"/>
       <c r="AQ63" s="30" t="str">
-        <f>IF(OR(G63="S",L63="S",Q63="S",V63="S",AA63="S",AF63="S",AK63="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR63" s="30" t="str">
-        <f>IF(OR(H63="S",M63="S",R63="S",W63="S",AB63="S",AG63="S",AL63="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
@@ -24636,11 +24634,11 @@
       <c r="AO64" s="118"/>
       <c r="AP64" s="28"/>
       <c r="AQ64" s="30" t="str">
-        <f>IF(OR(G64="S",L64="S",Q64="S",V64="S",AA64="S",AF64="S",AK64="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR64" s="30" t="str">
-        <f>IF(OR(H64="S",M64="S",R64="S",W64="S",AB64="S",AG64="S",AL64="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
@@ -24733,11 +24731,11 @@
       <c r="AO65" s="118"/>
       <c r="AP65" s="28"/>
       <c r="AQ65" s="30" t="str">
-        <f>IF(OR(G65="S",L65="S",Q65="S",V65="S",AA65="S",AF65="S",AK65="S"),"S","N")</f>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AR65" s="30" t="str">
-        <f>IF(OR(H65="S",M65="S",R65="S",W65="S",AB65="S",AG65="S",AL65="S"),"S","N")</f>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
@@ -24796,11 +24794,11 @@
       <c r="AO66" s="118"/>
       <c r="AP66" s="28"/>
       <c r="AQ66" s="30" t="str">
-        <f>IF(OR(G66="S",L66="S",Q66="S",V66="S",AA66="S",AF66="S",AK66="S"),"S","N")</f>
+        <f t="shared" ref="AQ66:AQ97" si="4">IF(OR(G66="S",L66="S",Q66="S",V66="S",AA66="S",AF66="S",AK66="S"),"S","N")</f>
         <v>N</v>
       </c>
       <c r="AR66" s="30" t="str">
-        <f>IF(OR(H66="S",M66="S",R66="S",W66="S",AB66="S",AG66="S",AL66="S"),"S","N")</f>
+        <f t="shared" ref="AR66:AR97" si="5">IF(OR(H66="S",M66="S",R66="S",W66="S",AB66="S",AG66="S",AL66="S"),"S","N")</f>
         <v>N</v>
       </c>
     </row>
@@ -24895,11 +24893,11 @@
       <c r="AO67" s="118"/>
       <c r="AP67" s="28"/>
       <c r="AQ67" s="30" t="str">
-        <f>IF(OR(G67="S",L67="S",Q67="S",V67="S",AA67="S",AF67="S",AK67="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AR67" s="30" t="str">
-        <f>IF(OR(H67="S",M67="S",R67="S",W67="S",AB67="S",AG67="S",AL67="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>S</v>
       </c>
     </row>
@@ -24972,11 +24970,11 @@
       <c r="AO68" s="118"/>
       <c r="AP68" s="28"/>
       <c r="AQ68" s="30" t="str">
-        <f>IF(OR(G68="S",L68="S",Q68="S",V68="S",AA68="S",AF68="S",AK68="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AR68" s="30" t="str">
-        <f>IF(OR(H68="S",M68="S",R68="S",W68="S",AB68="S",AG68="S",AL68="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -25047,11 +25045,11 @@
       <c r="AO69" s="118"/>
       <c r="AP69" s="28"/>
       <c r="AQ69" s="30" t="str">
-        <f>IF(OR(G69="S",L69="S",Q69="S",V69="S",AA69="S",AF69="S",AK69="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR69" s="30" t="str">
-        <f>IF(OR(H69="S",M69="S",R69="S",W69="S",AB69="S",AG69="S",AL69="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -25136,11 +25134,11 @@
         <v>178</v>
       </c>
       <c r="AQ70" s="30" t="str">
-        <f>IF(OR(G70="S",L70="S",Q70="S",V70="S",AA70="S",AF70="S",AK70="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AR70" s="30" t="str">
-        <f>IF(OR(H70="S",M70="S",R70="S",W70="S",AB70="S",AG70="S",AL70="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -25223,11 +25221,11 @@
       <c r="AO71" s="118"/>
       <c r="AP71" s="28"/>
       <c r="AQ71" s="30" t="str">
-        <f>IF(OR(G71="S",L71="S",Q71="S",V71="S",AA71="S",AF71="S",AK71="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR71" s="30" t="str">
-        <f>IF(OR(H71="S",M71="S",R71="S",W71="S",AB71="S",AG71="S",AL71="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -25298,11 +25296,11 @@
       <c r="AO72" s="118"/>
       <c r="AP72" s="28"/>
       <c r="AQ72" s="30" t="str">
-        <f>IF(OR(G72="S",L72="S",Q72="S",V72="S",AA72="S",AF72="S",AK72="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR72" s="30" t="str">
-        <f>IF(OR(H72="S",M72="S",R72="S",W72="S",AB72="S",AG72="S",AL72="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -25379,11 +25377,11 @@
       </c>
       <c r="AP73" s="28"/>
       <c r="AQ73" s="30" t="str">
-        <f>IF(OR(G73="S",L73="S",Q73="S",V73="S",AA73="S",AF73="S",AK73="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AR73" s="30" t="str">
-        <f>IF(OR(H73="S",M73="S",R73="S",W73="S",AB73="S",AG73="S",AL73="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>S</v>
       </c>
     </row>
@@ -25456,11 +25454,11 @@
         <v>187</v>
       </c>
       <c r="AQ74" s="30" t="str">
-        <f>IF(OR(G74="S",L74="S",Q74="S",V74="S",AA74="S",AF74="S",AK74="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR74" s="30" t="str">
-        <f>IF(OR(H74="S",M74="S",R74="S",W74="S",AB74="S",AG74="S",AL74="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -25541,11 +25539,11 @@
         <v>187</v>
       </c>
       <c r="AQ75" s="30" t="str">
-        <f>IF(OR(G75="S",L75="S",Q75="S",V75="S",AA75="S",AF75="S",AK75="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AR75" s="30" t="str">
-        <f>IF(OR(H75="S",M75="S",R75="S",W75="S",AB75="S",AG75="S",AL75="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>S</v>
       </c>
     </row>
@@ -25626,11 +25624,11 @@
         <v>187</v>
       </c>
       <c r="AQ76" s="30" t="str">
-        <f>IF(OR(G76="S",L76="S",Q76="S",V76="S",AA76="S",AF76="S",AK76="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AR76" s="30" t="str">
-        <f>IF(OR(H76="S",M76="S",R76="S",W76="S",AB76="S",AG76="S",AL76="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>S</v>
       </c>
     </row>
@@ -25695,11 +25693,11 @@
         <v>187</v>
       </c>
       <c r="AQ77" s="30" t="str">
-        <f>IF(OR(G77="S",L77="S",Q77="S",V77="S",AA77="S",AF77="S",AK77="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR77" s="30" t="str">
-        <f>IF(OR(H77="S",M77="S",R77="S",W77="S",AB77="S",AG77="S",AL77="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -25772,11 +25770,11 @@
         <v>187</v>
       </c>
       <c r="AQ78" s="30" t="str">
-        <f>IF(OR(G78="S",L78="S",Q78="S",V78="S",AA78="S",AF78="S",AK78="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR78" s="30" t="str">
-        <f>IF(OR(H78="S",M78="S",R78="S",W78="S",AB78="S",AG78="S",AL78="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -25847,11 +25845,11 @@
         <v>187</v>
       </c>
       <c r="AQ79" s="30" t="str">
-        <f>IF(OR(G79="S",L79="S",Q79="S",V79="S",AA79="S",AF79="S",AK79="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR79" s="30" t="str">
-        <f>IF(OR(H79="S",M79="S",R79="S",W79="S",AB79="S",AG79="S",AL79="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -25916,11 +25914,11 @@
         <v>187</v>
       </c>
       <c r="AQ80" s="30" t="str">
-        <f>IF(OR(G80="S",L80="S",Q80="S",V80="S",AA80="S",AF80="S",AK80="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR80" s="30" t="str">
-        <f>IF(OR(H80="S",M80="S",R80="S",W80="S",AB80="S",AG80="S",AL80="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -25993,11 +25991,11 @@
         <v>187</v>
       </c>
       <c r="AQ81" s="30" t="str">
-        <f>IF(OR(G81="S",L81="S",Q81="S",V81="S",AA81="S",AF81="S",AK81="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR81" s="30" t="str">
-        <f>IF(OR(H81="S",M81="S",R81="S",W81="S",AB81="S",AG81="S",AL81="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -26060,11 +26058,11 @@
         <v>187</v>
       </c>
       <c r="AQ82" s="30" t="str">
-        <f>IF(OR(G82="S",L82="S",Q82="S",V82="S",AA82="S",AF82="S",AK82="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR82" s="30" t="str">
-        <f>IF(OR(H82="S",M82="S",R82="S",W82="S",AB82="S",AG82="S",AL82="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -26125,11 +26123,11 @@
       <c r="AO83" s="118"/>
       <c r="AP83" s="28"/>
       <c r="AQ83" s="30" t="str">
-        <f>IF(OR(G83="S",L83="S",Q83="S",V83="S",AA83="S",AF83="S",AK83="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR83" s="30" t="str">
-        <f>IF(OR(H83="S",M83="S",R83="S",W83="S",AB83="S",AG83="S",AL83="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -26194,11 +26192,11 @@
         <v>187</v>
       </c>
       <c r="AQ84" s="30" t="str">
-        <f>IF(OR(G84="S",L84="S",Q84="S",V84="S",AA84="S",AF84="S",AK84="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR84" s="30" t="str">
-        <f>IF(OR(H84="S",M84="S",R84="S",W84="S",AB84="S",AG84="S",AL84="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -26263,11 +26261,11 @@
         <v>187</v>
       </c>
       <c r="AQ85" s="30" t="str">
-        <f>IF(OR(G85="S",L85="S",Q85="S",V85="S",AA85="S",AF85="S",AK85="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR85" s="30" t="str">
-        <f>IF(OR(H85="S",M85="S",R85="S",W85="S",AB85="S",AG85="S",AL85="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -26332,11 +26330,11 @@
         <v>187</v>
       </c>
       <c r="AQ86" s="30" t="str">
-        <f>IF(OR(G86="S",L86="S",Q86="S",V86="S",AA86="S",AF86="S",AK86="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR86" s="30" t="str">
-        <f>IF(OR(H86="S",M86="S",R86="S",W86="S",AB86="S",AG86="S",AL86="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -26401,11 +26399,11 @@
         <v>187</v>
       </c>
       <c r="AQ87" s="30" t="str">
-        <f>IF(OR(G87="S",L87="S",Q87="S",V87="S",AA87="S",AF87="S",AK87="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR87" s="30" t="str">
-        <f>IF(OR(H87="S",M87="S",R87="S",W87="S",AB87="S",AG87="S",AL87="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -26470,11 +26468,11 @@
         <v>187</v>
       </c>
       <c r="AQ88" s="30" t="str">
-        <f>IF(OR(G88="S",L88="S",Q88="S",V88="S",AA88="S",AF88="S",AK88="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR88" s="30" t="str">
-        <f>IF(OR(H88="S",M88="S",R88="S",W88="S",AB88="S",AG88="S",AL88="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -26543,11 +26541,11 @@
       <c r="AO89" s="118"/>
       <c r="AP89" s="28"/>
       <c r="AQ89" s="30" t="str">
-        <f>IF(OR(G89="S",L89="S",Q89="S",V89="S",AA89="S",AF89="S",AK89="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR89" s="30" t="str">
-        <f>IF(OR(H89="S",M89="S",R89="S",W89="S",AB89="S",AG89="S",AL89="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -26620,11 +26618,11 @@
         <v>187</v>
       </c>
       <c r="AQ90" s="30" t="str">
-        <f>IF(OR(G90="S",L90="S",Q90="S",V90="S",AA90="S",AF90="S",AK90="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR90" s="30" t="str">
-        <f>IF(OR(H90="S",M90="S",R90="S",W90="S",AB90="S",AG90="S",AL90="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -26709,11 +26707,11 @@
       <c r="AO91" s="118"/>
       <c r="AP91" s="28"/>
       <c r="AQ91" s="30" t="str">
-        <f>IF(OR(G91="S",L91="S",Q91="S",V91="S",AA91="S",AF91="S",AK91="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR91" s="30" t="str">
-        <f>IF(OR(H91="S",M91="S",R91="S",W91="S",AB91="S",AG91="S",AL91="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -26784,11 +26782,11 @@
       <c r="AO92" s="118"/>
       <c r="AP92" s="28"/>
       <c r="AQ92" s="30" t="str">
-        <f>IF(OR(G92="S",L92="S",Q92="S",V92="S",AA92="S",AF92="S",AK92="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR92" s="30" t="str">
-        <f>IF(OR(H92="S",M92="S",R92="S",W92="S",AB92="S",AG92="S",AL92="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -26871,11 +26869,11 @@
       <c r="AO93" s="118"/>
       <c r="AP93" s="28"/>
       <c r="AQ93" s="30" t="str">
-        <f>IF(OR(G93="S",L93="S",Q93="S",V93="S",AA93="S",AF93="S",AK93="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR93" s="30" t="str">
-        <f>IF(OR(H93="S",M93="S",R93="S",W93="S",AB93="S",AG93="S",AL93="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -26940,11 +26938,11 @@
         <v>187</v>
       </c>
       <c r="AQ94" s="30" t="str">
-        <f>IF(OR(G94="S",L94="S",Q94="S",V94="S",AA94="S",AF94="S",AK94="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR94" s="30" t="str">
-        <f>IF(OR(H94="S",M94="S",R94="S",W94="S",AB94="S",AG94="S",AL94="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -27007,11 +27005,11 @@
       <c r="AO95" s="118"/>
       <c r="AP95" s="28"/>
       <c r="AQ95" s="30" t="str">
-        <f>IF(OR(G95="S",L95="S",Q95="S",V95="S",AA95="S",AF95="S",AK95="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR95" s="30" t="str">
-        <f>IF(OR(H95="S",M95="S",R95="S",W95="S",AB95="S",AG95="S",AL95="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -27082,11 +27080,11 @@
       <c r="AO96" s="118"/>
       <c r="AP96" s="28"/>
       <c r="AQ96" s="30" t="str">
-        <f>IF(OR(G96="S",L96="S",Q96="S",V96="S",AA96="S",AF96="S",AK96="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR96" s="30" t="str">
-        <f>IF(OR(H96="S",M96="S",R96="S",W96="S",AB96="S",AG96="S",AL96="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -27155,11 +27153,11 @@
       <c r="AO97" s="118"/>
       <c r="AP97" s="28"/>
       <c r="AQ97" s="30" t="str">
-        <f>IF(OR(G97="S",L97="S",Q97="S",V97="S",AA97="S",AF97="S",AK97="S"),"S","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="AR97" s="30" t="str">
-        <f>IF(OR(H97="S",M97="S",R97="S",W97="S",AB97="S",AG97="S",AL97="S"),"S","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
     </row>
@@ -27228,11 +27226,11 @@
       <c r="AO98" s="118"/>
       <c r="AP98" s="28"/>
       <c r="AQ98" s="30" t="str">
-        <f>IF(OR(G98="S",L98="S",Q98="S",V98="S",AA98="S",AF98="S",AK98="S"),"S","N")</f>
+        <f t="shared" ref="AQ98:AQ129" si="6">IF(OR(G98="S",L98="S",Q98="S",V98="S",AA98="S",AF98="S",AK98="S"),"S","N")</f>
         <v>N</v>
       </c>
       <c r="AR98" s="30" t="str">
-        <f>IF(OR(H98="S",M98="S",R98="S",W98="S",AB98="S",AG98="S",AL98="S"),"S","N")</f>
+        <f t="shared" ref="AR98:AR129" si="7">IF(OR(H98="S",M98="S",R98="S",W98="S",AB98="S",AG98="S",AL98="S"),"S","N")</f>
         <v>N</v>
       </c>
     </row>
@@ -27303,11 +27301,11 @@
       <c r="AO99" s="118"/>
       <c r="AP99" s="28"/>
       <c r="AQ99" s="30" t="str">
-        <f>IF(OR(G99="S",L99="S",Q99="S",V99="S",AA99="S",AF99="S",AK99="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR99" s="30" t="str">
-        <f>IF(OR(H99="S",M99="S",R99="S",W99="S",AB99="S",AG99="S",AL99="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -27376,11 +27374,11 @@
       <c r="AO100" s="118"/>
       <c r="AP100" s="28"/>
       <c r="AQ100" s="30" t="str">
-        <f>IF(OR(G100="S",L100="S",Q100="S",V100="S",AA100="S",AF100="S",AK100="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR100" s="30" t="str">
-        <f>IF(OR(H100="S",M100="S",R100="S",W100="S",AB100="S",AG100="S",AL100="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -27443,11 +27441,11 @@
       <c r="AO101" s="118"/>
       <c r="AP101" s="28"/>
       <c r="AQ101" s="30" t="str">
-        <f>IF(OR(G101="S",L101="S",Q101="S",V101="S",AA101="S",AF101="S",AK101="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR101" s="30" t="str">
-        <f>IF(OR(H101="S",M101="S",R101="S",W101="S",AB101="S",AG101="S",AL101="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -27516,11 +27514,11 @@
       <c r="AO102" s="118"/>
       <c r="AP102" s="28"/>
       <c r="AQ102" s="30" t="str">
-        <f>IF(OR(G102="S",L102="S",Q102="S",V102="S",AA102="S",AF102="S",AK102="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR102" s="30" t="str">
-        <f>IF(OR(H102="S",M102="S",R102="S",W102="S",AB102="S",AG102="S",AL102="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -27579,11 +27577,11 @@
       <c r="AO103" s="118"/>
       <c r="AP103" s="28"/>
       <c r="AQ103" s="30" t="str">
-        <f>IF(OR(G103="S",L103="S",Q103="S",V103="S",AA103="S",AF103="S",AK103="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR103" s="30" t="str">
-        <f>IF(OR(H103="S",M103="S",R103="S",W103="S",AB103="S",AG103="S",AL103="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -27646,11 +27644,11 @@
       <c r="AO104" s="118"/>
       <c r="AP104" s="28"/>
       <c r="AQ104" s="30" t="str">
-        <f>IF(OR(G104="S",L104="S",Q104="S",V104="S",AA104="S",AF104="S",AK104="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR104" s="30" t="str">
-        <f>IF(OR(H104="S",M104="S",R104="S",W104="S",AB104="S",AG104="S",AL104="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -27719,11 +27717,11 @@
       <c r="AO105" s="118"/>
       <c r="AP105" s="28"/>
       <c r="AQ105" s="30" t="str">
-        <f>IF(OR(G105="S",L105="S",Q105="S",V105="S",AA105="S",AF105="S",AK105="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR105" s="30" t="str">
-        <f>IF(OR(H105="S",M105="S",R105="S",W105="S",AB105="S",AG105="S",AL105="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -27792,11 +27790,11 @@
       <c r="AO106" s="118"/>
       <c r="AP106" s="28"/>
       <c r="AQ106" s="30" t="str">
-        <f>IF(OR(G106="S",L106="S",Q106="S",V106="S",AA106="S",AF106="S",AK106="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR106" s="30" t="str">
-        <f>IF(OR(H106="S",M106="S",R106="S",W106="S",AB106="S",AG106="S",AL106="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -27859,11 +27857,11 @@
       <c r="AO107" s="118"/>
       <c r="AP107" s="28"/>
       <c r="AQ107" s="30" t="str">
-        <f>IF(OR(G107="S",L107="S",Q107="S",V107="S",AA107="S",AF107="S",AK107="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR107" s="30" t="str">
-        <f>IF(OR(H107="S",M107="S",R107="S",W107="S",AB107="S",AG107="S",AL107="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -27932,11 +27930,11 @@
       <c r="AO108" s="118"/>
       <c r="AP108" s="28"/>
       <c r="AQ108" s="30" t="str">
-        <f>IF(OR(G108="S",L108="S",Q108="S",V108="S",AA108="S",AF108="S",AK108="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR108" s="30" t="str">
-        <f>IF(OR(H108="S",M108="S",R108="S",W108="S",AB108="S",AG108="S",AL108="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -28005,11 +28003,11 @@
       <c r="AO109" s="118"/>
       <c r="AP109" s="28"/>
       <c r="AQ109" s="30" t="str">
-        <f>IF(OR(G109="S",L109="S",Q109="S",V109="S",AA109="S",AF109="S",AK109="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR109" s="30" t="str">
-        <f>IF(OR(H109="S",M109="S",R109="S",W109="S",AB109="S",AG109="S",AL109="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -28078,11 +28076,11 @@
       <c r="AO110" s="118"/>
       <c r="AP110" s="28"/>
       <c r="AQ110" s="30" t="str">
-        <f>IF(OR(G110="S",L110="S",Q110="S",V110="S",AA110="S",AF110="S",AK110="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR110" s="30" t="str">
-        <f>IF(OR(H110="S",M110="S",R110="S",W110="S",AB110="S",AG110="S",AL110="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -28175,11 +28173,11 @@
       <c r="AO111" s="118"/>
       <c r="AP111" s="28"/>
       <c r="AQ111" s="30" t="str">
-        <f>IF(OR(G111="S",L111="S",Q111="S",V111="S",AA111="S",AF111="S",AK111="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>S</v>
       </c>
       <c r="AR111" s="30" t="str">
-        <f>IF(OR(H111="S",M111="S",R111="S",W111="S",AB111="S",AG111="S",AL111="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>S</v>
       </c>
     </row>
@@ -28248,11 +28246,11 @@
       <c r="AO112" s="118"/>
       <c r="AP112" s="28"/>
       <c r="AQ112" s="30" t="str">
-        <f>IF(OR(G112="S",L112="S",Q112="S",V112="S",AA112="S",AF112="S",AK112="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR112" s="30" t="str">
-        <f>IF(OR(H112="S",M112="S",R112="S",W112="S",AB112="S",AG112="S",AL112="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -28321,11 +28319,11 @@
       <c r="AO113" s="118"/>
       <c r="AP113" s="28"/>
       <c r="AQ113" s="30" t="str">
-        <f>IF(OR(G113="S",L113="S",Q113="S",V113="S",AA113="S",AF113="S",AK113="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR113" s="30" t="str">
-        <f>IF(OR(H113="S",M113="S",R113="S",W113="S",AB113="S",AG113="S",AL113="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -28394,11 +28392,11 @@
       <c r="AO114" s="118"/>
       <c r="AP114" s="28"/>
       <c r="AQ114" s="30" t="str">
-        <f>IF(OR(G114="S",L114="S",Q114="S",V114="S",AA114="S",AF114="S",AK114="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR114" s="30" t="str">
-        <f>IF(OR(H114="S",M114="S",R114="S",W114="S",AB114="S",AG114="S",AL114="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -28467,11 +28465,11 @@
       <c r="AO115" s="118"/>
       <c r="AP115" s="28"/>
       <c r="AQ115" s="30" t="str">
-        <f>IF(OR(G115="S",L115="S",Q115="S",V115="S",AA115="S",AF115="S",AK115="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR115" s="30" t="str">
-        <f>IF(OR(H115="S",M115="S",R115="S",W115="S",AB115="S",AG115="S",AL115="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -28558,11 +28556,11 @@
       <c r="AO116" s="118"/>
       <c r="AP116" s="28"/>
       <c r="AQ116" s="30" t="str">
-        <f>IF(OR(G116="S",L116="S",Q116="S",V116="S",AA116="S",AF116="S",AK116="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>S</v>
       </c>
       <c r="AR116" s="30" t="str">
-        <f>IF(OR(H116="S",M116="S",R116="S",W116="S",AB116="S",AG116="S",AL116="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>S</v>
       </c>
     </row>
@@ -28631,11 +28629,11 @@
       <c r="AO117" s="118"/>
       <c r="AP117" s="28"/>
       <c r="AQ117" s="30" t="str">
-        <f>IF(OR(G117="S",L117="S",Q117="S",V117="S",AA117="S",AF117="S",AK117="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR117" s="30" t="str">
-        <f>IF(OR(H117="S",M117="S",R117="S",W117="S",AB117="S",AG117="S",AL117="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -28704,11 +28702,11 @@
       <c r="AO118" s="118"/>
       <c r="AP118" s="28"/>
       <c r="AQ118" s="30" t="str">
-        <f>IF(OR(G118="S",L118="S",Q118="S",V118="S",AA118="S",AF118="S",AK118="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR118" s="30" t="str">
-        <f>IF(OR(H118="S",M118="S",R118="S",W118="S",AB118="S",AG118="S",AL118="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -28787,11 +28785,11 @@
       <c r="AO119" s="118"/>
       <c r="AP119" s="28"/>
       <c r="AQ119" s="30" t="str">
-        <f>IF(OR(G119="S",L119="S",Q119="S",V119="S",AA119="S",AF119="S",AK119="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>S</v>
       </c>
       <c r="AR119" s="30" t="str">
-        <f>IF(OR(H119="S",M119="S",R119="S",W119="S",AB119="S",AG119="S",AL119="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>S</v>
       </c>
     </row>
@@ -28860,11 +28858,11 @@
       <c r="AO120" s="118"/>
       <c r="AP120" s="28"/>
       <c r="AQ120" s="30" t="str">
-        <f>IF(OR(G120="S",L120="S",Q120="S",V120="S",AA120="S",AF120="S",AK120="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR120" s="30" t="str">
-        <f>IF(OR(H120="S",M120="S",R120="S",W120="S",AB120="S",AG120="S",AL120="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -28933,11 +28931,11 @@
       <c r="AO121" s="118"/>
       <c r="AP121" s="28"/>
       <c r="AQ121" s="30" t="str">
-        <f>IF(OR(G121="S",L121="S",Q121="S",V121="S",AA121="S",AF121="S",AK121="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR121" s="30" t="str">
-        <f>IF(OR(H121="S",M121="S",R121="S",W121="S",AB121="S",AG121="S",AL121="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -29006,11 +29004,11 @@
       <c r="AO122" s="118"/>
       <c r="AP122" s="28"/>
       <c r="AQ122" s="30" t="str">
-        <f>IF(OR(G122="S",L122="S",Q122="S",V122="S",AA122="S",AF122="S",AK122="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR122" s="30" t="str">
-        <f>IF(OR(H122="S",M122="S",R122="S",W122="S",AB122="S",AG122="S",AL122="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -29095,11 +29093,11 @@
       <c r="AO123" s="118"/>
       <c r="AP123" s="28"/>
       <c r="AQ123" s="30" t="str">
-        <f>IF(OR(G123="S",L123="S",Q123="S",V123="S",AA123="S",AF123="S",AK123="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>S</v>
       </c>
       <c r="AR123" s="30" t="str">
-        <f>IF(OR(H123="S",M123="S",R123="S",W123="S",AB123="S",AG123="S",AL123="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>S</v>
       </c>
     </row>
@@ -29168,11 +29166,11 @@
       <c r="AO124" s="118"/>
       <c r="AP124" s="28"/>
       <c r="AQ124" s="30" t="str">
-        <f>IF(OR(G124="S",L124="S",Q124="S",V124="S",AA124="S",AF124="S",AK124="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR124" s="30" t="str">
-        <f>IF(OR(H124="S",M124="S",R124="S",W124="S",AB124="S",AG124="S",AL124="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -29241,11 +29239,11 @@
       <c r="AO125" s="118"/>
       <c r="AP125" s="28"/>
       <c r="AQ125" s="30" t="str">
-        <f>IF(OR(G125="S",L125="S",Q125="S",V125="S",AA125="S",AF125="S",AK125="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR125" s="30" t="str">
-        <f>IF(OR(H125="S",M125="S",R125="S",W125="S",AB125="S",AG125="S",AL125="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -29324,11 +29322,11 @@
       <c r="AO126" s="118"/>
       <c r="AP126" s="28"/>
       <c r="AQ126" s="30" t="str">
-        <f>IF(OR(G126="S",L126="S",Q126="S",V126="S",AA126="S",AF126="S",AK126="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>S</v>
       </c>
       <c r="AR126" s="30" t="str">
-        <f>IF(OR(H126="S",M126="S",R126="S",W126="S",AB126="S",AG126="S",AL126="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>S</v>
       </c>
     </row>
@@ -29407,11 +29405,11 @@
       <c r="AO127" s="118"/>
       <c r="AP127" s="28"/>
       <c r="AQ127" s="30" t="str">
-        <f>IF(OR(G127="S",L127="S",Q127="S",V127="S",AA127="S",AF127="S",AK127="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>S</v>
       </c>
       <c r="AR127" s="30" t="str">
-        <f>IF(OR(H127="S",M127="S",R127="S",W127="S",AB127="S",AG127="S",AL127="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>S</v>
       </c>
     </row>
@@ -29480,11 +29478,11 @@
       <c r="AO128" s="118"/>
       <c r="AP128" s="28"/>
       <c r="AQ128" s="30" t="str">
-        <f>IF(OR(G128="S",L128="S",Q128="S",V128="S",AA128="S",AF128="S",AK128="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="AR128" s="30" t="str">
-        <f>IF(OR(H128="S",M128="S",R128="S",W128="S",AB128="S",AG128="S",AL128="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
     </row>
@@ -29565,11 +29563,11 @@
       <c r="AO129" s="118"/>
       <c r="AP129" s="28"/>
       <c r="AQ129" s="30" t="str">
-        <f>IF(OR(G129="S",L129="S",Q129="S",V129="S",AA129="S",AF129="S",AK129="S"),"S","N")</f>
+        <f t="shared" si="6"/>
         <v>S</v>
       </c>
       <c r="AR129" s="30" t="str">
-        <f>IF(OR(H129="S",M129="S",R129="S",W129="S",AB129="S",AG129="S",AL129="S"),"S","N")</f>
+        <f t="shared" si="7"/>
         <v>S</v>
       </c>
     </row>
@@ -29638,11 +29636,11 @@
       <c r="AO130" s="118"/>
       <c r="AP130" s="28"/>
       <c r="AQ130" s="30" t="str">
-        <f>IF(OR(G130="S",L130="S",Q130="S",V130="S",AA130="S",AF130="S",AK130="S"),"S","N")</f>
+        <f t="shared" ref="AQ130:AQ164" si="8">IF(OR(G130="S",L130="S",Q130="S",V130="S",AA130="S",AF130="S",AK130="S"),"S","N")</f>
         <v>N</v>
       </c>
       <c r="AR130" s="30" t="str">
-        <f>IF(OR(H130="S",M130="S",R130="S",W130="S",AB130="S",AG130="S",AL130="S"),"S","N")</f>
+        <f t="shared" ref="AR130:AR164" si="9">IF(OR(H130="S",M130="S",R130="S",W130="S",AB130="S",AG130="S",AL130="S"),"S","N")</f>
         <v>N</v>
       </c>
     </row>
@@ -29723,11 +29721,11 @@
       <c r="AO131" s="118"/>
       <c r="AP131" s="28"/>
       <c r="AQ131" s="30" t="str">
-        <f>IF(OR(G131="S",L131="S",Q131="S",V131="S",AA131="S",AF131="S",AK131="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>S</v>
       </c>
       <c r="AR131" s="30" t="str">
-        <f>IF(OR(H131="S",M131="S",R131="S",W131="S",AB131="S",AG131="S",AL131="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>S</v>
       </c>
     </row>
@@ -29796,11 +29794,11 @@
       <c r="AO132" s="118"/>
       <c r="AP132" s="28"/>
       <c r="AQ132" s="30" t="str">
-        <f>IF(OR(G132="S",L132="S",Q132="S",V132="S",AA132="S",AF132="S",AK132="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR132" s="30" t="str">
-        <f>IF(OR(H132="S",M132="S",R132="S",W132="S",AB132="S",AG132="S",AL132="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -29859,11 +29857,11 @@
       <c r="AO133" s="118"/>
       <c r="AP133" s="28"/>
       <c r="AQ133" s="30" t="str">
-        <f>IF(OR(G133="S",L133="S",Q133="S",V133="S",AA133="S",AF133="S",AK133="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR133" s="30" t="str">
-        <f>IF(OR(H133="S",M133="S",R133="S",W133="S",AB133="S",AG133="S",AL133="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -29912,11 +29910,11 @@
       <c r="AO134" s="118"/>
       <c r="AP134" s="28"/>
       <c r="AQ134" s="30" t="str">
-        <f>IF(OR(G134="S",L134="S",Q134="S",V134="S",AA134="S",AF134="S",AK134="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR134" s="30" t="str">
-        <f>IF(OR(H134="S",M134="S",R134="S",W134="S",AB134="S",AG134="S",AL134="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -29965,11 +29963,11 @@
       <c r="AO135" s="118"/>
       <c r="AP135" s="28"/>
       <c r="AQ135" s="30" t="str">
-        <f>IF(OR(G135="S",L135="S",Q135="S",V135="S",AA135="S",AF135="S",AK135="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR135" s="30" t="str">
-        <f>IF(OR(H135="S",M135="S",R135="S",W135="S",AB135="S",AG135="S",AL135="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -30018,11 +30016,11 @@
       <c r="AO136" s="118"/>
       <c r="AP136" s="28"/>
       <c r="AQ136" s="30" t="str">
-        <f>IF(OR(G136="S",L136="S",Q136="S",V136="S",AA136="S",AF136="S",AK136="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR136" s="30" t="str">
-        <f>IF(OR(H136="S",M136="S",R136="S",W136="S",AB136="S",AG136="S",AL136="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -30071,11 +30069,11 @@
       <c r="AO137" s="118"/>
       <c r="AP137" s="28"/>
       <c r="AQ137" s="30" t="str">
-        <f>IF(OR(G137="S",L137="S",Q137="S",V137="S",AA137="S",AF137="S",AK137="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR137" s="30" t="str">
-        <f>IF(OR(H137="S",M137="S",R137="S",W137="S",AB137="S",AG137="S",AL137="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -30124,11 +30122,11 @@
       <c r="AO138" s="118"/>
       <c r="AP138" s="28"/>
       <c r="AQ138" s="30" t="str">
-        <f>IF(OR(G138="S",L138="S",Q138="S",V138="S",AA138="S",AF138="S",AK138="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR138" s="30" t="str">
-        <f>IF(OR(H138="S",M138="S",R138="S",W138="S",AB138="S",AG138="S",AL138="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -30177,11 +30175,11 @@
       <c r="AO139" s="118"/>
       <c r="AP139" s="28"/>
       <c r="AQ139" s="30" t="str">
-        <f>IF(OR(G139="S",L139="S",Q139="S",V139="S",AA139="S",AF139="S",AK139="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR139" s="30" t="str">
-        <f>IF(OR(H139="S",M139="S",R139="S",W139="S",AB139="S",AG139="S",AL139="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -30230,11 +30228,11 @@
       <c r="AO140" s="118"/>
       <c r="AP140" s="28"/>
       <c r="AQ140" s="30" t="str">
-        <f>IF(OR(G140="S",L140="S",Q140="S",V140="S",AA140="S",AF140="S",AK140="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR140" s="30" t="str">
-        <f>IF(OR(H140="S",M140="S",R140="S",W140="S",AB140="S",AG140="S",AL140="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -30283,11 +30281,11 @@
       <c r="AO141" s="118"/>
       <c r="AP141" s="28"/>
       <c r="AQ141" s="30" t="str">
-        <f>IF(OR(G141="S",L141="S",Q141="S",V141="S",AA141="S",AF141="S",AK141="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR141" s="30" t="str">
-        <f>IF(OR(H141="S",M141="S",R141="S",W141="S",AB141="S",AG141="S",AL141="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -30336,11 +30334,11 @@
       <c r="AO142" s="118"/>
       <c r="AP142" s="28"/>
       <c r="AQ142" s="30" t="str">
-        <f>IF(OR(G142="S",L142="S",Q142="S",V142="S",AA142="S",AF142="S",AK142="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR142" s="30" t="str">
-        <f>IF(OR(H142="S",M142="S",R142="S",W142="S",AB142="S",AG142="S",AL142="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -30389,11 +30387,11 @@
       <c r="AO143" s="118"/>
       <c r="AP143" s="28"/>
       <c r="AQ143" s="30" t="str">
-        <f>IF(OR(G143="S",L143="S",Q143="S",V143="S",AA143="S",AF143="S",AK143="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR143" s="30" t="str">
-        <f>IF(OR(H143="S",M143="S",R143="S",W143="S",AB143="S",AG143="S",AL143="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -30442,11 +30440,11 @@
       <c r="AO144" s="118"/>
       <c r="AP144" s="28"/>
       <c r="AQ144" s="30" t="str">
-        <f>IF(OR(G144="S",L144="S",Q144="S",V144="S",AA144="S",AF144="S",AK144="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR144" s="30" t="str">
-        <f>IF(OR(H144="S",M144="S",R144="S",W144="S",AB144="S",AG144="S",AL144="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -30495,11 +30493,11 @@
       <c r="AO145" s="118"/>
       <c r="AP145" s="28"/>
       <c r="AQ145" s="30" t="str">
-        <f>IF(OR(G145="S",L145="S",Q145="S",V145="S",AA145="S",AF145="S",AK145="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR145" s="30" t="str">
-        <f>IF(OR(H145="S",M145="S",R145="S",W145="S",AB145="S",AG145="S",AL145="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -30548,11 +30546,11 @@
       <c r="AO146" s="118"/>
       <c r="AP146" s="28"/>
       <c r="AQ146" s="30" t="str">
-        <f>IF(OR(G146="S",L146="S",Q146="S",V146="S",AA146="S",AF146="S",AK146="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR146" s="30" t="str">
-        <f>IF(OR(H146="S",M146="S",R146="S",W146="S",AB146="S",AG146="S",AL146="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -30601,11 +30599,11 @@
       <c r="AO147" s="118"/>
       <c r="AP147" s="28"/>
       <c r="AQ147" s="30" t="str">
-        <f>IF(OR(G147="S",L147="S",Q147="S",V147="S",AA147="S",AF147="S",AK147="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR147" s="30" t="str">
-        <f>IF(OR(H147="S",M147="S",R147="S",W147="S",AB147="S",AG147="S",AL147="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -30654,11 +30652,11 @@
       <c r="AO148" s="118"/>
       <c r="AP148" s="28"/>
       <c r="AQ148" s="30" t="str">
-        <f>IF(OR(G148="S",L148="S",Q148="S",V148="S",AA148="S",AF148="S",AK148="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR148" s="30" t="str">
-        <f>IF(OR(H148="S",M148="S",R148="S",W148="S",AB148="S",AG148="S",AL148="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -30707,11 +30705,11 @@
       <c r="AO149" s="118"/>
       <c r="AP149" s="28"/>
       <c r="AQ149" s="30" t="str">
-        <f>IF(OR(G149="S",L149="S",Q149="S",V149="S",AA149="S",AF149="S",AK149="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR149" s="30" t="str">
-        <f>IF(OR(H149="S",M149="S",R149="S",W149="S",AB149="S",AG149="S",AL149="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -30760,11 +30758,11 @@
       <c r="AO150" s="118"/>
       <c r="AP150" s="28"/>
       <c r="AQ150" s="30" t="str">
-        <f>IF(OR(G150="S",L150="S",Q150="S",V150="S",AA150="S",AF150="S",AK150="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR150" s="30" t="str">
-        <f>IF(OR(H150="S",M150="S",R150="S",W150="S",AB150="S",AG150="S",AL150="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -30813,11 +30811,11 @@
       <c r="AO151" s="118"/>
       <c r="AP151" s="28"/>
       <c r="AQ151" s="30" t="str">
-        <f>IF(OR(G151="S",L151="S",Q151="S",V151="S",AA151="S",AF151="S",AK151="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR151" s="30" t="str">
-        <f>IF(OR(H151="S",M151="S",R151="S",W151="S",AB151="S",AG151="S",AL151="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -30866,11 +30864,11 @@
       <c r="AO152" s="118"/>
       <c r="AP152" s="28"/>
       <c r="AQ152" s="30" t="str">
-        <f>IF(OR(G152="S",L152="S",Q152="S",V152="S",AA152="S",AF152="S",AK152="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR152" s="30" t="str">
-        <f>IF(OR(H152="S",M152="S",R152="S",W152="S",AB152="S",AG152="S",AL152="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -30919,11 +30917,11 @@
       <c r="AO153" s="118"/>
       <c r="AP153" s="28"/>
       <c r="AQ153" s="30" t="str">
-        <f>IF(OR(G153="S",L153="S",Q153="S",V153="S",AA153="S",AF153="S",AK153="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR153" s="30" t="str">
-        <f>IF(OR(H153="S",M153="S",R153="S",W153="S",AB153="S",AG153="S",AL153="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -30972,11 +30970,11 @@
       <c r="AO154" s="118"/>
       <c r="AP154" s="28"/>
       <c r="AQ154" s="30" t="str">
-        <f>IF(OR(G154="S",L154="S",Q154="S",V154="S",AA154="S",AF154="S",AK154="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR154" s="30" t="str">
-        <f>IF(OR(H154="S",M154="S",R154="S",W154="S",AB154="S",AG154="S",AL154="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -31025,11 +31023,11 @@
       <c r="AO155" s="118"/>
       <c r="AP155" s="28"/>
       <c r="AQ155" s="30" t="str">
-        <f>IF(OR(G155="S",L155="S",Q155="S",V155="S",AA155="S",AF155="S",AK155="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR155" s="30" t="str">
-        <f>IF(OR(H155="S",M155="S",R155="S",W155="S",AB155="S",AG155="S",AL155="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -31078,11 +31076,11 @@
       <c r="AO156" s="118"/>
       <c r="AP156" s="28"/>
       <c r="AQ156" s="30" t="str">
-        <f>IF(OR(G156="S",L156="S",Q156="S",V156="S",AA156="S",AF156="S",AK156="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR156" s="30" t="str">
-        <f>IF(OR(H156="S",M156="S",R156="S",W156="S",AB156="S",AG156="S",AL156="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -31131,11 +31129,11 @@
       <c r="AO157" s="118"/>
       <c r="AP157" s="28"/>
       <c r="AQ157" s="30" t="str">
-        <f>IF(OR(G157="S",L157="S",Q157="S",V157="S",AA157="S",AF157="S",AK157="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR157" s="30" t="str">
-        <f>IF(OR(H157="S",M157="S",R157="S",W157="S",AB157="S",AG157="S",AL157="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -31184,11 +31182,11 @@
       <c r="AO158" s="118"/>
       <c r="AP158" s="28"/>
       <c r="AQ158" s="30" t="str">
-        <f>IF(OR(G158="S",L158="S",Q158="S",V158="S",AA158="S",AF158="S",AK158="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR158" s="30" t="str">
-        <f>IF(OR(H158="S",M158="S",R158="S",W158="S",AB158="S",AG158="S",AL158="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -31237,11 +31235,11 @@
       <c r="AO159" s="118"/>
       <c r="AP159" s="28"/>
       <c r="AQ159" s="30" t="str">
-        <f>IF(OR(G159="S",L159="S",Q159="S",V159="S",AA159="S",AF159="S",AK159="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR159" s="30" t="str">
-        <f>IF(OR(H159="S",M159="S",R159="S",W159="S",AB159="S",AG159="S",AL159="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -31290,11 +31288,11 @@
       <c r="AO160" s="118"/>
       <c r="AP160" s="28"/>
       <c r="AQ160" s="30" t="str">
-        <f>IF(OR(G160="S",L160="S",Q160="S",V160="S",AA160="S",AF160="S",AK160="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR160" s="30" t="str">
-        <f>IF(OR(H160="S",M160="S",R160="S",W160="S",AB160="S",AG160="S",AL160="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -31343,11 +31341,11 @@
       <c r="AO161" s="118"/>
       <c r="AP161" s="28"/>
       <c r="AQ161" s="30" t="str">
-        <f>IF(OR(G161="S",L161="S",Q161="S",V161="S",AA161="S",AF161="S",AK161="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR161" s="30" t="str">
-        <f>IF(OR(H161="S",M161="S",R161="S",W161="S",AB161="S",AG161="S",AL161="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -31396,11 +31394,11 @@
       <c r="AO162" s="118"/>
       <c r="AP162" s="28"/>
       <c r="AQ162" s="30" t="str">
-        <f>IF(OR(G162="S",L162="S",Q162="S",V162="S",AA162="S",AF162="S",AK162="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR162" s="30" t="str">
-        <f>IF(OR(H162="S",M162="S",R162="S",W162="S",AB162="S",AG162="S",AL162="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -31449,11 +31447,11 @@
       <c r="AO163" s="118"/>
       <c r="AP163" s="28"/>
       <c r="AQ163" s="30" t="str">
-        <f>IF(OR(G163="S",L163="S",Q163="S",V163="S",AA163="S",AF163="S",AK163="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR163" s="30" t="str">
-        <f>IF(OR(H163="S",M163="S",R163="S",W163="S",AB163="S",AG163="S",AL163="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
@@ -31502,16 +31500,15 @@
       <c r="AO164" s="118"/>
       <c r="AP164" s="28"/>
       <c r="AQ164" s="30" t="str">
-        <f>IF(OR(G164="S",L164="S",Q164="S",V164="S",AA164="S",AF164="S",AK164="S"),"S","N")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="AR164" s="30" t="str">
-        <f>IF(OR(H164="S",M164="S",R164="S",W164="S",AB164="S",AG164="S",AL164="S"),"S","N")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:AR164" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="G16 H6:I100 M6:N100 R6:S100 W6:X100 AB6:AC100 AG6:AH100 AL6:AM100">
     <cfRule type="expression" dxfId="65" priority="157">
       <formula>AND(F6="S",G6="")</formula>

--- a/script_master_data/ficherosExcelOrigen/DED-FDAR_Adopcion IA_v1a.xlsx
+++ b/script_master_data/ficherosExcelOrigen/DED-FDAR_Adopcion IA_v1a.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9351CF9E-0A56-4753-9CEF-4607EFD408F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F36CFD-2A36-4216-BF0C-DA8CA143D614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Estado" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AdopcionIA!$A$5:$AR$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AdopcionIA!$B$2:$AS$164</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -19443,20 +19443,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:AS164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="L115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AS13" sqref="AS13"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.54296875" style="119" customWidth="1"/>
     <col min="6" max="6" width="12.453125" style="1" customWidth="1"/>
@@ -19473,12 +19474,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:45" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B3" s="90" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:45" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:45" s="2" customFormat="1" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="E4" s="120"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
@@ -29865,7 +29866,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="134" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="10"/>
@@ -29918,7 +29919,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="135" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="10"/>
@@ -29971,7 +29972,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="136" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="10"/>
@@ -30024,7 +30025,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="137" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="10"/>
@@ -30077,7 +30078,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="138" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="10"/>
@@ -30130,7 +30131,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="139" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="10"/>
@@ -30183,7 +30184,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="140" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="10"/>
@@ -30236,7 +30237,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="141" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="10"/>
@@ -30289,7 +30290,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="142" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="10"/>
@@ -30342,7 +30343,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="143" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="10"/>
@@ -30395,7 +30396,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="144" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="10"/>
@@ -30448,7 +30449,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="145" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="10"/>
@@ -30501,7 +30502,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="146" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="10"/>
@@ -30554,7 +30555,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="147" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="10"/>
@@ -30607,7 +30608,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="148" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="10"/>
@@ -30660,7 +30661,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="149" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="10"/>
@@ -30713,7 +30714,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="150" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="10"/>
@@ -30766,7 +30767,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="151" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="10"/>
@@ -30819,7 +30820,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="152" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="10"/>
@@ -30872,7 +30873,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="153" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="10"/>
@@ -30925,7 +30926,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="154" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="10"/>
@@ -30978,7 +30979,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="155" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="10"/>
@@ -31031,7 +31032,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="156" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="10"/>
@@ -31084,7 +31085,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="157" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
       <c r="D157" s="10"/>
@@ -31137,7 +31138,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="158" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="10"/>
@@ -31190,7 +31191,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="159" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="10"/>
@@ -31243,7 +31244,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="160" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="10"/>
@@ -31296,7 +31297,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="161" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
       <c r="D161" s="10"/>
@@ -31349,7 +31350,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="162" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
       <c r="D162" s="10"/>
@@ -31402,7 +31403,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="163" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="10"/>
@@ -31455,7 +31456,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="164" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="10"/>
@@ -31509,6 +31510,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:AS164" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G16 H6:I100 M6:N100 R6:S100 W6:X100 AB6:AC100 AG6:AH100 AL6:AM100">
     <cfRule type="expression" dxfId="65" priority="157">
       <formula>AND(F6="S",G6="")</formula>
@@ -35613,6 +35621,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -35813,30 +35844,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46BEB639-02D6-420C-8B5B-952CBCB04A16}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35853,22 +35879,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>